--- a/target/test-classes/data/Demo6.xlsx
+++ b/target/test-classes/data/Demo6.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -412,7 +413,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -472,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -512,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -532,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -552,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -572,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -592,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
